--- a/data/TT/Game-2020.xlsx
+++ b/data/TT/Game-2020.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4020472-58FD-47CD-AAD6-4C0D9328FB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEDC79-9591-4941-8125-D011BEB0D94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tablib Dataset'!$A$1:$G$644</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -63,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,11 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J615" sqref="J615"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,13 +446,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -457,13 +466,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -477,13 +486,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -497,13 +506,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -517,13 +526,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -537,13 +546,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -557,13 +566,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -577,13 +586,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -597,13 +606,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -617,13 +626,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -637,13 +646,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -657,13 +666,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -677,13 +686,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -697,13 +706,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -717,13 +726,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -737,13 +746,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -757,13 +766,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -777,13 +786,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -797,13 +806,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -817,13 +826,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -837,13 +846,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -857,13 +866,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -877,13 +886,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -897,13 +906,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -917,13 +926,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -937,10 +946,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -957,10 +966,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -977,13 +986,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -997,13 +1006,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1017,13 +1026,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1037,13 +1046,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1057,13 +1066,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1077,13 +1086,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1097,13 +1106,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1117,13 +1126,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1137,13 +1146,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1157,13 +1166,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1177,13 +1186,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1197,13 +1206,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1217,13 +1226,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1237,13 +1246,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1257,13 +1266,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1277,13 +1286,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1297,13 +1306,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1317,10 +1326,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -1337,13 +1346,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1357,13 +1366,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1377,13 +1386,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1397,13 +1406,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1417,10 +1426,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>9</v>
@@ -1437,13 +1446,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1457,13 +1466,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1477,13 +1486,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1497,13 +1506,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1517,13 +1526,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1537,13 +1546,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1557,13 +1566,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1577,13 +1586,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1597,13 +1606,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1617,13 +1626,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1637,13 +1646,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1657,10 +1666,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -1677,13 +1686,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>12</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1697,13 +1706,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1717,13 +1726,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1737,13 +1746,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1757,10 +1766,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -1777,13 +1786,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1797,13 +1806,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1817,13 +1826,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1837,13 +1846,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1857,13 +1866,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1877,13 +1886,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1897,13 +1906,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1917,10 +1926,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -1937,13 +1946,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>13</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1957,13 +1966,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1977,13 +1986,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1997,13 +2006,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2017,10 +2026,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -2037,13 +2046,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2057,13 +2066,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2077,13 +2086,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2097,13 +2106,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2117,13 +2126,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2137,13 +2146,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2157,13 +2166,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2177,10 +2186,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -2197,13 +2206,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2217,10 +2226,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>13</v>
@@ -2237,13 +2246,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2257,13 +2266,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2277,13 +2286,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2297,13 +2306,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2317,13 +2326,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2337,13 +2346,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>8</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2357,13 +2366,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2377,10 +2386,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>13</v>
@@ -2397,13 +2406,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2417,13 +2426,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2440,7 +2449,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C102">
         <v>14</v>
@@ -2460,10 +2469,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2480,10 +2489,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2500,10 +2509,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -2520,10 +2529,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2540,10 +2549,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -2560,10 +2569,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -2580,10 +2589,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -2603,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -2623,7 +2632,7 @@
         <v>24</v>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -2640,7 +2649,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C112">
         <v>14</v>
@@ -2660,10 +2669,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -2680,10 +2689,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -2700,10 +2709,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C115">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -2720,10 +2729,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -2740,10 +2749,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C117">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -2760,10 +2769,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C118">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -2780,10 +2789,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C119">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -2800,10 +2809,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C120">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -2820,10 +2829,10 @@
         <v>120</v>
       </c>
       <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121">
         <v>15</v>
-      </c>
-      <c r="C121">
-        <v>14</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -2840,10 +2849,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C122">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -2860,10 +2869,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -2880,10 +2889,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C124">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -2900,7 +2909,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C125">
         <v>15</v>
@@ -2923,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -2940,10 +2949,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C127">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -2960,10 +2969,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C128">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -2980,10 +2989,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C129">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3000,10 +3009,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C130">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -3020,10 +3029,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -3040,10 +3049,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C132">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -3060,10 +3069,10 @@
         <v>132</v>
       </c>
       <c r="B133">
+        <v>19</v>
+      </c>
+      <c r="C133">
         <v>16</v>
-      </c>
-      <c r="C133">
-        <v>14</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -3080,10 +3089,10 @@
         <v>133</v>
       </c>
       <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
         <v>16</v>
-      </c>
-      <c r="C134">
-        <v>15</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -3100,10 +3109,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C135">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -3120,10 +3129,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -3140,10 +3149,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C137">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -3160,10 +3169,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C138">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3180,10 +3189,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C139">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3220,10 +3229,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3240,10 +3249,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -3260,10 +3269,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -3280,10 +3289,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C144">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -3300,10 +3309,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C145">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -3320,10 +3329,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C146">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -3340,10 +3349,10 @@
         <v>146</v>
       </c>
       <c r="B147">
+        <v>21</v>
+      </c>
+      <c r="C147">
         <v>17</v>
-      </c>
-      <c r="C147">
-        <v>14</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3360,10 +3369,10 @@
         <v>147</v>
       </c>
       <c r="B148">
+        <v>22</v>
+      </c>
+      <c r="C148">
         <v>17</v>
-      </c>
-      <c r="C148">
-        <v>15</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -3380,10 +3389,10 @@
         <v>148</v>
       </c>
       <c r="B149">
+        <v>23</v>
+      </c>
+      <c r="C149">
         <v>17</v>
-      </c>
-      <c r="C149">
-        <v>16</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -3400,10 +3409,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C150">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3420,10 +3429,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3440,10 +3449,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C152">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -3463,7 +3472,7 @@
         <v>27</v>
       </c>
       <c r="C153">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -3480,10 +3489,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C154">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -3500,10 +3509,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3520,10 +3529,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3540,10 +3549,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -3560,7 +3569,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>18</v>
@@ -3580,10 +3589,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -3600,10 +3609,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -3620,10 +3629,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C161">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -3640,10 +3649,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C162">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -3660,10 +3669,10 @@
         <v>162</v>
       </c>
       <c r="B163">
+        <v>26</v>
+      </c>
+      <c r="C163">
         <v>18</v>
-      </c>
-      <c r="C163">
-        <v>14</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -3680,10 +3689,10 @@
         <v>163</v>
       </c>
       <c r="B164">
+        <v>27</v>
+      </c>
+      <c r="C164">
         <v>18</v>
-      </c>
-      <c r="C164">
-        <v>15</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -3700,10 +3709,10 @@
         <v>164</v>
       </c>
       <c r="B165">
+        <v>28</v>
+      </c>
+      <c r="C165">
         <v>18</v>
-      </c>
-      <c r="C165">
-        <v>16</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -3720,10 +3729,10 @@
         <v>165</v>
       </c>
       <c r="B166">
+        <v>29</v>
+      </c>
+      <c r="C166">
         <v>18</v>
-      </c>
-      <c r="C166">
-        <v>17</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -3740,10 +3749,10 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C167">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -3760,10 +3769,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C168">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -3780,10 +3789,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C169">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -3800,10 +3809,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -3820,10 +3829,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C171">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -3840,10 +3849,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C172">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -3860,10 +3869,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C173">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -3880,10 +3889,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C174">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -3903,7 +3912,7 @@
         <v>28</v>
       </c>
       <c r="C175">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -3920,10 +3929,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C176">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -3940,10 +3949,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C177">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -3960,7 +3969,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -3980,10 +3989,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C179">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4000,10 +4009,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C180">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -4020,10 +4029,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C181">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4040,10 +4049,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C182">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4060,10 +4069,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C183">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4080,10 +4089,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C184">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -4100,10 +4109,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C185">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -4120,10 +4129,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C186">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4140,10 +4149,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4160,10 +4169,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C188">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -4180,10 +4189,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C189">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4200,10 +4209,10 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C190">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4220,10 +4229,10 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C191">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -4240,10 +4249,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C192">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4263,7 +4272,7 @@
         <v>29</v>
       </c>
       <c r="C193">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4280,10 +4289,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C194">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4300,10 +4309,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C195">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4320,10 +4329,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C196">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -4340,10 +4349,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C197">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -4360,10 +4369,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C198">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -4380,10 +4389,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C199">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -4420,10 +4429,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C201">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -4440,10 +4449,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C202">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -4460,10 +4469,10 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C203">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -4480,10 +4489,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C204">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D204">
         <v>2</v>
@@ -4500,10 +4509,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C205">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -4520,10 +4529,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C206">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D206">
         <v>2</v>
@@ -4540,10 +4549,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C207">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>2</v>
@@ -4560,10 +4569,10 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C208">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -4580,10 +4589,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C209">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -4600,10 +4609,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C210">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D210">
         <v>2</v>
@@ -4620,10 +4629,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C211">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -4640,10 +4649,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C212">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -4660,10 +4669,10 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C213">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -4680,10 +4689,10 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C214">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -4700,10 +4709,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C215">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D215">
         <v>2</v>
@@ -4720,10 +4729,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C216">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -4740,10 +4749,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C217">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -4760,10 +4769,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C218">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -4780,10 +4789,10 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C219">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -4800,10 +4809,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C220">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -4820,10 +4829,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C221">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -4840,7 +4849,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C222">
         <v>30</v>
@@ -4860,10 +4869,10 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C223">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -4880,10 +4889,10 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C224">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -4900,10 +4909,10 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C225">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -4920,10 +4929,10 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C226">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -4940,10 +4949,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C227">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -4960,10 +4969,10 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C228">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -4980,10 +4989,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C229">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D229">
         <v>3</v>
@@ -5003,7 +5012,7 @@
         <v>39</v>
       </c>
       <c r="C230">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -5020,7 +5029,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C231">
         <v>30</v>
@@ -5040,7 +5049,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C232">
         <v>30</v>
@@ -5060,10 +5069,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C233">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D233">
         <v>3</v>
@@ -5080,10 +5089,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C234">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -5100,10 +5109,10 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C235">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -5120,10 +5129,10 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C236">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D236">
         <v>3</v>
@@ -5140,10 +5149,10 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C237">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D237">
         <v>3</v>
@@ -5160,10 +5169,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C238">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -5180,10 +5189,10 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C239">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -5200,10 +5209,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C240">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -5220,10 +5229,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C241">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D241">
         <v>3</v>
@@ -5240,10 +5249,10 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C242">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D242">
         <v>3</v>
@@ -5260,7 +5269,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C243">
         <v>31</v>
@@ -5280,10 +5289,10 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C244">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -5300,10 +5309,10 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C245">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D245">
         <v>3</v>
@@ -5340,10 +5349,10 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C247">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D247">
         <v>3</v>
@@ -5360,10 +5369,10 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C248">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -5380,10 +5389,10 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C249">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -5400,10 +5409,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C250">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -5420,10 +5429,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C251">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D251">
         <v>3</v>
@@ -5440,10 +5449,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C252">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D252">
         <v>3</v>
@@ -5460,10 +5469,10 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C253">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D253">
         <v>3</v>
@@ -5480,10 +5489,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C254">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -5500,10 +5509,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C255">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D255">
         <v>3</v>
@@ -5520,10 +5529,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C256">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -5540,7 +5549,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C257">
         <v>32</v>
@@ -5560,10 +5569,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C258">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D258">
         <v>3</v>
@@ -5580,10 +5589,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C259">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -5603,7 +5612,7 @@
         <v>42</v>
       </c>
       <c r="C260">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D260">
         <v>3</v>
@@ -5620,10 +5629,10 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C261">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -5640,7 +5649,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C262">
         <v>32</v>
@@ -5660,10 +5669,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C263">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D263">
         <v>3</v>
@@ -5680,7 +5689,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C264">
         <v>33</v>
@@ -5700,10 +5709,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C265">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -5720,10 +5729,10 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C266">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -5740,10 +5749,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C267">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D267">
         <v>3</v>
@@ -5760,10 +5769,10 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C268">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D268">
         <v>3</v>
@@ -5780,10 +5789,10 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C269">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D269">
         <v>3</v>
@@ -5800,10 +5809,10 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C270">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -5820,10 +5829,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C271">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D271">
         <v>3</v>
@@ -5840,10 +5849,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C272">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D272">
         <v>3</v>
@@ -5860,7 +5869,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C273">
         <v>33</v>
@@ -5880,10 +5889,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C274">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D274">
         <v>3</v>
@@ -5900,10 +5909,10 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C275">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -5920,10 +5929,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C276">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -5940,10 +5949,10 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C277">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -5960,10 +5969,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C278">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -5980,10 +5989,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C279">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -6000,10 +6009,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C280">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -6020,10 +6029,10 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C281">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -6040,7 +6049,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C282">
         <v>34</v>
@@ -6060,10 +6069,10 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C283">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -6083,7 +6092,7 @@
         <v>43</v>
       </c>
       <c r="C284">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -6100,10 +6109,10 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C285">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -6120,10 +6129,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C286">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -6140,10 +6149,10 @@
         <v>286</v>
       </c>
       <c r="B287">
+        <v>36</v>
+      </c>
+      <c r="C287">
         <v>35</v>
-      </c>
-      <c r="C287">
-        <v>30</v>
       </c>
       <c r="D287">
         <v>3</v>
@@ -6160,10 +6169,10 @@
         <v>287</v>
       </c>
       <c r="B288">
+        <v>37</v>
+      </c>
+      <c r="C288">
         <v>35</v>
-      </c>
-      <c r="C288">
-        <v>31</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -6180,10 +6189,10 @@
         <v>288</v>
       </c>
       <c r="B289">
+        <v>38</v>
+      </c>
+      <c r="C289">
         <v>35</v>
-      </c>
-      <c r="C289">
-        <v>32</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -6200,10 +6209,10 @@
         <v>289</v>
       </c>
       <c r="B290">
+        <v>39</v>
+      </c>
+      <c r="C290">
         <v>35</v>
-      </c>
-      <c r="C290">
-        <v>33</v>
       </c>
       <c r="D290">
         <v>3</v>
@@ -6220,10 +6229,10 @@
         <v>290</v>
       </c>
       <c r="B291">
+        <v>40</v>
+      </c>
+      <c r="C291">
         <v>35</v>
-      </c>
-      <c r="C291">
-        <v>34</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -6240,10 +6249,10 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C292">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -6260,10 +6269,10 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C293">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -6280,10 +6289,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C294">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -6303,7 +6312,7 @@
         <v>44</v>
       </c>
       <c r="C295">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -6320,10 +6329,10 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C296">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D296">
         <v>3</v>
@@ -6340,10 +6349,10 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C297">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D297">
         <v>3</v>
@@ -6360,10 +6369,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C298">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -6380,10 +6389,10 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C299">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -6400,10 +6409,10 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C300">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -6420,10 +6429,10 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C301">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -6440,10 +6449,10 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C302">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D302">
         <v>3</v>
@@ -6460,7 +6469,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C303">
         <v>36</v>
@@ -6483,7 +6492,7 @@
         <v>44</v>
       </c>
       <c r="C304">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -6500,10 +6509,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C305">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -6520,10 +6529,10 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C306">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -6540,10 +6549,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C307">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -6560,10 +6569,10 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C308">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -6580,10 +6589,10 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C309">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -6600,10 +6609,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C310">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D310">
         <v>3</v>
@@ -6620,10 +6629,10 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C311">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -6640,10 +6649,10 @@
         <v>311</v>
       </c>
       <c r="B312">
+        <v>44</v>
+      </c>
+      <c r="C312">
         <v>37</v>
-      </c>
-      <c r="C312">
-        <v>30</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -6660,10 +6669,10 @@
         <v>312</v>
       </c>
       <c r="B313">
+        <v>45</v>
+      </c>
+      <c r="C313">
         <v>37</v>
-      </c>
-      <c r="C313">
-        <v>31</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -6680,10 +6689,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C314">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D314">
         <v>3</v>
@@ -6700,10 +6709,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C315">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D315">
         <v>3</v>
@@ -6720,10 +6729,10 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C316">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -6740,10 +6749,10 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C317">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D317">
         <v>3</v>
@@ -6760,10 +6769,10 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C318">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D318">
         <v>3</v>
@@ -6780,10 +6789,10 @@
         <v>318</v>
       </c>
       <c r="B319">
+        <v>44</v>
+      </c>
+      <c r="C319">
         <v>38</v>
-      </c>
-      <c r="C319">
-        <v>30</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -6800,10 +6809,10 @@
         <v>319</v>
       </c>
       <c r="B320">
+        <v>45</v>
+      </c>
+      <c r="C320">
         <v>38</v>
-      </c>
-      <c r="C320">
-        <v>31</v>
       </c>
       <c r="D320">
         <v>3</v>
@@ -6820,10 +6829,10 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C321">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D321">
         <v>3</v>
@@ -6840,10 +6849,10 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C322">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D322">
         <v>3</v>
@@ -6860,10 +6869,10 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C323">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D323">
         <v>3</v>
@@ -6880,10 +6889,10 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C324">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D324">
         <v>3</v>
@@ -6900,10 +6909,10 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C325">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D325">
         <v>3</v>
@@ -6920,10 +6929,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C326">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D326">
         <v>3</v>
@@ -6940,13 +6949,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C327">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D327">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -6960,13 +6969,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C328">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D328">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F328" t="s">
         <v>7</v>
@@ -6980,13 +6989,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C329">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D329">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F329" t="s">
         <v>7</v>
@@ -7000,13 +7009,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C330">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D330">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F330" t="s">
         <v>7</v>
@@ -7020,13 +7029,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C331">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D331">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F331" t="s">
         <v>7</v>
@@ -7040,13 +7049,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C332">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D332">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F332" t="s">
         <v>7</v>
@@ -7060,13 +7069,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C333">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F333" t="s">
         <v>7</v>
@@ -7080,13 +7089,13 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C334">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D334">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -7100,13 +7109,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C335">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D335">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F335" t="s">
         <v>7</v>
@@ -7120,13 +7129,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C336">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D336">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F336" t="s">
         <v>7</v>
@@ -7140,13 +7149,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C337">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D337">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F337" t="s">
         <v>7</v>
@@ -7160,13 +7169,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C338">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D338">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F338" t="s">
         <v>7</v>
@@ -7180,13 +7189,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C339">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D339">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -7200,13 +7209,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C340">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D340">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F340" t="s">
         <v>7</v>
@@ -7220,13 +7229,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C341">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D341">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F341" t="s">
         <v>7</v>
@@ -7240,10 +7249,10 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C342">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D342">
         <v>4</v>
@@ -7260,10 +7269,10 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C343">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D343">
         <v>4</v>
@@ -7280,10 +7289,10 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C344">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D344">
         <v>4</v>
@@ -7300,10 +7309,10 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C345">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D345">
         <v>4</v>
@@ -7320,10 +7329,10 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C346">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D346">
         <v>4</v>
@@ -7340,10 +7349,10 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C347">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D347">
         <v>4</v>
@@ -7360,10 +7369,10 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C348">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D348">
         <v>4</v>
@@ -7380,7 +7389,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C349">
         <v>46</v>
@@ -7400,10 +7409,10 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C350">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D350">
         <v>4</v>
@@ -7423,7 +7432,7 @@
         <v>56</v>
       </c>
       <c r="C351">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D351">
         <v>4</v>
@@ -7440,10 +7449,10 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C352">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D352">
         <v>4</v>
@@ -7457,13 +7466,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B353">
+        <v>58</v>
+      </c>
+      <c r="C353">
         <v>46</v>
-      </c>
-      <c r="C353">
-        <v>45</v>
       </c>
       <c r="D353">
         <v>4</v>
@@ -7477,13 +7486,13 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B354">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C354">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D354">
         <v>4</v>
@@ -7497,13 +7506,13 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B355">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C355">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D355">
         <v>4</v>
@@ -7517,13 +7526,13 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B356">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C356">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D356">
         <v>4</v>
@@ -7537,10 +7546,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B357">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C357">
         <v>47</v>
@@ -7557,13 +7566,13 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B358">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C358">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D358">
         <v>4</v>
@@ -7577,13 +7586,13 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B359">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C359">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D359">
         <v>4</v>
@@ -7597,13 +7606,13 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B360">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C360">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D360">
         <v>4</v>
@@ -7617,13 +7626,13 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B361">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C361">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D361">
         <v>4</v>
@@ -7637,13 +7646,13 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B362">
+        <v>54</v>
+      </c>
+      <c r="C362">
         <v>47</v>
-      </c>
-      <c r="C362">
-        <v>45</v>
       </c>
       <c r="D362">
         <v>4</v>
@@ -7657,13 +7666,13 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B363">
+        <v>55</v>
+      </c>
+      <c r="C363">
         <v>47</v>
-      </c>
-      <c r="C363">
-        <v>46</v>
       </c>
       <c r="D363">
         <v>4</v>
@@ -7677,13 +7686,13 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B364">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C364">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D364">
         <v>4</v>
@@ -7697,13 +7706,13 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B365">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C365">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D365">
         <v>4</v>
@@ -7717,13 +7726,13 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B366">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C366">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D366">
         <v>4</v>
@@ -7737,13 +7746,13 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B367">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C367">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D367">
         <v>4</v>
@@ -7757,10 +7766,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B368">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C368">
         <v>47</v>
@@ -7777,10 +7786,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B369">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C369">
         <v>48</v>
@@ -7797,13 +7806,13 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B370">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C370">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D370">
         <v>4</v>
@@ -7817,13 +7826,13 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B371">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C371">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D371">
         <v>4</v>
@@ -7837,13 +7846,13 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B372">
+        <v>52</v>
+      </c>
+      <c r="C372">
         <v>48</v>
-      </c>
-      <c r="C372">
-        <v>45</v>
       </c>
       <c r="D372">
         <v>4</v>
@@ -7857,13 +7866,13 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B373">
+        <v>53</v>
+      </c>
+      <c r="C373">
         <v>48</v>
-      </c>
-      <c r="C373">
-        <v>46</v>
       </c>
       <c r="D373">
         <v>4</v>
@@ -7877,13 +7886,13 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B374">
+        <v>54</v>
+      </c>
+      <c r="C374">
         <v>48</v>
-      </c>
-      <c r="C374">
-        <v>47</v>
       </c>
       <c r="D374">
         <v>4</v>
@@ -7897,13 +7906,13 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B375">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C375">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D375">
         <v>4</v>
@@ -7917,13 +7926,13 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B376">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C376">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D376">
         <v>4</v>
@@ -7937,13 +7946,13 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B377">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C377">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D377">
         <v>4</v>
@@ -7957,13 +7966,13 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B378">
         <v>59</v>
       </c>
       <c r="C378">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D378">
         <v>4</v>
@@ -7977,13 +7986,13 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B379">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C379">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D379">
         <v>4</v>
@@ -7997,13 +8006,13 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B380">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C380">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D380">
         <v>4</v>
@@ -8017,10 +8026,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B381">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C381">
         <v>49</v>
@@ -8037,13 +8046,13 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B382">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C382">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D382">
         <v>4</v>
@@ -8057,13 +8066,13 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="B383">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C383">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D383">
         <v>4</v>
@@ -8077,13 +8086,13 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B384">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C384">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D384">
         <v>4</v>
@@ -8097,13 +8106,13 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B385">
+        <v>54</v>
+      </c>
+      <c r="C385">
         <v>49</v>
-      </c>
-      <c r="C385">
-        <v>45</v>
       </c>
       <c r="D385">
         <v>4</v>
@@ -8117,13 +8126,13 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="B386">
+        <v>55</v>
+      </c>
+      <c r="C386">
         <v>49</v>
-      </c>
-      <c r="C386">
-        <v>46</v>
       </c>
       <c r="D386">
         <v>4</v>
@@ -8137,13 +8146,13 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B387">
+        <v>56</v>
+      </c>
+      <c r="C387">
         <v>49</v>
-      </c>
-      <c r="C387">
-        <v>47</v>
       </c>
       <c r="D387">
         <v>4</v>
@@ -8157,13 +8166,13 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B388">
+        <v>57</v>
+      </c>
+      <c r="C388">
         <v>49</v>
-      </c>
-      <c r="C388">
-        <v>48</v>
       </c>
       <c r="D388">
         <v>4</v>
@@ -8177,13 +8186,13 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="B389">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C389">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D389">
         <v>4</v>
@@ -8197,13 +8206,13 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="B390">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C390">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D390">
         <v>4</v>
@@ -8217,13 +8226,13 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B391">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C391">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D391">
         <v>4</v>
@@ -8237,13 +8246,13 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B392">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C392">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D392">
         <v>4</v>
@@ -8257,13 +8266,13 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B393">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C393">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D393">
         <v>4</v>
@@ -8277,13 +8286,13 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="B394">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C394">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D394">
         <v>4</v>
@@ -8297,13 +8306,13 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="B395">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C395">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D395">
         <v>4</v>
@@ -8317,13 +8326,13 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="B396">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C396">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D396">
         <v>4</v>
@@ -8337,10 +8346,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="B397">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C397">
         <v>50</v>
@@ -8357,13 +8366,13 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B398">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C398">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D398">
         <v>4</v>
@@ -8377,13 +8386,13 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="B399">
+        <v>60</v>
+      </c>
+      <c r="C399">
         <v>50</v>
-      </c>
-      <c r="C399">
-        <v>45</v>
       </c>
       <c r="D399">
         <v>4</v>
@@ -8397,13 +8406,13 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B400">
+        <v>63</v>
+      </c>
+      <c r="C400">
         <v>50</v>
-      </c>
-      <c r="C400">
-        <v>46</v>
       </c>
       <c r="D400">
         <v>4</v>
@@ -8417,13 +8426,13 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="B401">
+        <v>66</v>
+      </c>
+      <c r="C401">
         <v>50</v>
-      </c>
-      <c r="C401">
-        <v>47</v>
       </c>
       <c r="D401">
         <v>4</v>
@@ -8437,13 +8446,13 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B402">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C402">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D402">
         <v>4</v>
@@ -8457,13 +8466,13 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B403">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C403">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D403">
         <v>4</v>
@@ -8477,13 +8486,13 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B404">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C404">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D404">
         <v>4</v>
@@ -8497,13 +8506,13 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B405">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C405">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D405">
         <v>4</v>
@@ -8517,13 +8526,13 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B406">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C406">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D406">
         <v>4</v>
@@ -8537,13 +8546,13 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B407">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C407">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D407">
         <v>4</v>
@@ -8557,13 +8566,13 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="B408">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C408">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D408">
         <v>4</v>
@@ -8577,13 +8586,13 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="B409">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C409">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D409">
         <v>4</v>
@@ -8597,13 +8606,13 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="B410">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C410">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D410">
         <v>4</v>
@@ -8617,13 +8626,13 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="B411">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C411">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D411">
         <v>4</v>
@@ -8637,13 +8646,13 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="B412">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C412">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D412">
         <v>4</v>
@@ -8657,13 +8666,13 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="B413">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C413">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D413">
         <v>4</v>
@@ -8677,13 +8686,13 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="B414">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C414">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D414">
         <v>4</v>
@@ -8697,13 +8706,13 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="B415">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C415">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D415">
         <v>4</v>
@@ -8717,13 +8726,13 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="B416">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C416">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D416">
         <v>4</v>
@@ -8737,13 +8746,13 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="B417">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C417">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D417">
         <v>4</v>
@@ -8757,13 +8766,13 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="B418">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C418">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D418">
         <v>4</v>
@@ -8777,13 +8786,13 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="B419">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C419">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D419">
         <v>4</v>
@@ -8797,13 +8806,13 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="B420">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C420">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D420">
         <v>4</v>
@@ -8817,13 +8826,13 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="B421">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C421">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D421">
         <v>4</v>
@@ -8837,13 +8846,13 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="B422">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C422">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D422">
         <v>4</v>
@@ -8857,13 +8866,13 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="B423">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C423">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D423">
         <v>4</v>
@@ -8877,13 +8886,13 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="B424">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C424">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D424">
         <v>4</v>
@@ -8897,13 +8906,13 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B425">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C425">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D425">
         <v>4</v>
@@ -8917,13 +8926,13 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="B426">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C426">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D426">
         <v>4</v>
@@ -8937,13 +8946,13 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="B427">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C427">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D427">
         <v>4</v>
@@ -8957,13 +8966,13 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B428">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C428">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D428">
         <v>4</v>
@@ -8977,13 +8986,13 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="B429">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C429">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D429">
         <v>4</v>
@@ -8997,13 +9006,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="B430">
         <v>62</v>
       </c>
       <c r="C430">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D430">
         <v>4</v>
@@ -9017,13 +9026,13 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="B431">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C431">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D431">
         <v>4</v>
@@ -9037,13 +9046,13 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="B432">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C432">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D432">
         <v>4</v>
@@ -9057,13 +9066,13 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="B433">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C433">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D433">
         <v>4</v>
@@ -9077,13 +9086,13 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="B434">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C434">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D434">
         <v>4</v>
@@ -9097,13 +9106,13 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="B435">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C435">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D435">
         <v>4</v>
@@ -9117,13 +9126,13 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="B436">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C436">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D436">
         <v>4</v>
@@ -9137,13 +9146,13 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="B437">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C437">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D437">
         <v>4</v>
@@ -9157,13 +9166,13 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="B438">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C438">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D438">
         <v>4</v>
@@ -9177,13 +9186,13 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="B439">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C439">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D439">
         <v>4</v>
@@ -9197,13 +9206,13 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="B440">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C440">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D440">
         <v>4</v>
@@ -9217,13 +9226,13 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="B441">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C441">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D441">
         <v>4</v>
@@ -9237,13 +9246,13 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="B442">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C442">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D442">
         <v>4</v>
@@ -9257,13 +9266,13 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="B443">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C443">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D443">
         <v>4</v>
@@ -9277,13 +9286,13 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="B444">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C444">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D444">
         <v>4</v>
@@ -9297,13 +9306,13 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="B445">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C445">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D445">
         <v>4</v>
@@ -9317,10 +9326,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="B446">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C446">
         <v>58</v>
@@ -9337,13 +9346,13 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="B447">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C447">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D447">
         <v>4</v>
@@ -9357,13 +9366,13 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="B448">
         <v>63</v>
       </c>
       <c r="C448">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D448">
         <v>4</v>
@@ -9377,13 +9386,13 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="B449">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C449">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D449">
         <v>4</v>
@@ -9397,13 +9406,13 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="B450">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C450">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D450">
         <v>4</v>
@@ -9417,13 +9426,13 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="B451">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C451">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D451">
         <v>4</v>
@@ -9437,13 +9446,13 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="B452">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C452">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D452">
         <v>4</v>
@@ -9457,13 +9466,13 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="B453">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C453">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D453">
         <v>4</v>
@@ -9477,13 +9486,13 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>453</v>
+        <v>375</v>
       </c>
       <c r="B454">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C454">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D454">
         <v>4</v>
@@ -9497,13 +9506,13 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="B455">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C455">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D455">
         <v>4</v>
@@ -9517,13 +9526,13 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="B456">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C456">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D456">
         <v>4</v>
@@ -9537,13 +9546,13 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="B457">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C457">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D457">
         <v>4</v>
@@ -9557,13 +9566,13 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>457</v>
+        <v>379</v>
       </c>
       <c r="B458">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C458">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D458">
         <v>4</v>
@@ -9577,13 +9586,13 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="B459">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C459">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D459">
         <v>4</v>
@@ -9597,13 +9606,13 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="B460">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C460">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D460">
         <v>4</v>
@@ -9617,13 +9626,13 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="B461">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C461">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D461">
         <v>4</v>
@@ -9637,13 +9646,13 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="B462">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C462">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D462">
         <v>4</v>
@@ -9657,13 +9666,13 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="B463">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C463">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D463">
         <v>4</v>
@@ -9677,13 +9686,13 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="B464">
         <v>64</v>
       </c>
       <c r="C464">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D464">
         <v>4</v>
@@ -9697,13 +9706,13 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>464</v>
+        <v>398</v>
       </c>
       <c r="B465">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C465">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D465">
         <v>4</v>
@@ -9717,13 +9726,13 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="B466">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C466">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D466">
         <v>4</v>
@@ -9737,13 +9746,13 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="B467">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C467">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D467">
         <v>4</v>
@@ -9757,13 +9766,13 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="B468">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C468">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D468">
         <v>4</v>
@@ -9777,13 +9786,13 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="B469">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C469">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D469">
         <v>4</v>
@@ -9797,13 +9806,13 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="B470">
         <v>64</v>
       </c>
       <c r="C470">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D470">
         <v>4</v>
@@ -9817,13 +9826,13 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="B471">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C471">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D471">
         <v>4</v>
@@ -9837,10 +9846,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="B472">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C472">
         <v>61</v>
@@ -9857,10 +9866,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="B473">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C473">
         <v>62</v>
@@ -9877,13 +9886,13 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="B474">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C474">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D474">
         <v>4</v>
@@ -9897,13 +9906,13 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B475">
         <v>64</v>
       </c>
       <c r="C475">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D475">
         <v>4</v>
@@ -9917,13 +9926,13 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="B476">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C476">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D476">
         <v>4</v>
@@ -9937,16 +9946,16 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="B477">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C477">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D477">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F477" t="s">
         <v>7</v>
@@ -9957,16 +9966,16 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="B478">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C478">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D478">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F478" t="s">
         <v>7</v>
@@ -9977,16 +9986,16 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="B479">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C479">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D479">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F479" t="s">
         <v>7</v>
@@ -9997,16 +10006,16 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="B480">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C480">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D480">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F480" t="s">
         <v>7</v>
@@ -10017,16 +10026,16 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="B481">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C481">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D481">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F481" t="s">
         <v>7</v>
@@ -10037,16 +10046,16 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B482">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C482">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D482">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F482" t="s">
         <v>7</v>
@@ -10057,16 +10066,16 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="B483">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C483">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D483">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F483" t="s">
         <v>7</v>
@@ -10077,16 +10086,16 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="B484">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C484">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D484">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F484" t="s">
         <v>7</v>
@@ -10097,16 +10106,16 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="B485">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C485">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D485">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F485" t="s">
         <v>7</v>
@@ -10117,16 +10126,16 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B486">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C486">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D486">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F486" t="s">
         <v>7</v>
@@ -10137,16 +10146,16 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B487">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C487">
         <v>66</v>
       </c>
       <c r="D487">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F487" t="s">
         <v>7</v>
@@ -10157,16 +10166,16 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B488">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C488">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D488">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F488" t="s">
         <v>7</v>
@@ -10180,7 +10189,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C489">
         <v>67</v>
@@ -10200,10 +10209,10 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C490">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D490">
         <v>5</v>
@@ -10220,10 +10229,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C491">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D491">
         <v>5</v>
@@ -10240,10 +10249,10 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C492">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D492">
         <v>5</v>
@@ -10260,10 +10269,10 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C493">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D493">
         <v>5</v>
@@ -10280,10 +10289,10 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C494">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D494">
         <v>5</v>
@@ -10300,10 +10309,10 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C495">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D495">
         <v>5</v>
@@ -10320,10 +10329,10 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C496">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D496">
         <v>5</v>
@@ -10343,7 +10352,7 @@
         <v>76</v>
       </c>
       <c r="C497">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D497">
         <v>5</v>
@@ -10360,10 +10369,10 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C498">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D498">
         <v>5</v>
@@ -10380,7 +10389,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C499">
         <v>67</v>
@@ -10400,10 +10409,10 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C500">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D500">
         <v>5</v>
@@ -10420,10 +10429,10 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C501">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D501">
         <v>5</v>
@@ -10440,10 +10449,10 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C502">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D502">
         <v>5</v>
@@ -10460,10 +10469,10 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C503">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D503">
         <v>5</v>
@@ -10480,10 +10489,10 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C504">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D504">
         <v>5</v>
@@ -10500,10 +10509,10 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C505">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D505">
         <v>5</v>
@@ -10520,10 +10529,10 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C506">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D506">
         <v>5</v>
@@ -10540,10 +10549,10 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C507">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D507">
         <v>5</v>
@@ -10560,10 +10569,10 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C508">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D508">
         <v>5</v>
@@ -10580,10 +10589,10 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C509">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D509">
         <v>5</v>
@@ -10600,10 +10609,10 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C510">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D510">
         <v>5</v>
@@ -10620,7 +10629,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C511">
         <v>68</v>
@@ -10643,7 +10652,7 @@
         <v>77</v>
       </c>
       <c r="C512">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D512">
         <v>5</v>
@@ -10660,10 +10669,10 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C513">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D513">
         <v>5</v>
@@ -10680,10 +10689,10 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C514">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D514">
         <v>5</v>
@@ -10700,10 +10709,10 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C515">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D515">
         <v>5</v>
@@ -10720,10 +10729,10 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C516">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D516">
         <v>5</v>
@@ -10740,10 +10749,10 @@
         <v>516</v>
       </c>
       <c r="B517">
+        <v>82</v>
+      </c>
+      <c r="C517">
         <v>68</v>
-      </c>
-      <c r="C517">
-        <v>65</v>
       </c>
       <c r="D517">
         <v>5</v>
@@ -10760,10 +10769,10 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C518">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D518">
         <v>5</v>
@@ -10780,10 +10789,10 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C519">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D519">
         <v>5</v>
@@ -10800,10 +10809,10 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C520">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D520">
         <v>5</v>
@@ -10820,10 +10829,10 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C521">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D521">
         <v>5</v>
@@ -10840,10 +10849,10 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C522">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D522">
         <v>5</v>
@@ -10860,10 +10869,10 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C523">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D523">
         <v>5</v>
@@ -10880,10 +10889,10 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C524">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D524">
         <v>5</v>
@@ -10900,10 +10909,10 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C525">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D525">
         <v>5</v>
@@ -10923,7 +10932,7 @@
         <v>78</v>
       </c>
       <c r="C526">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D526">
         <v>5</v>
@@ -10940,7 +10949,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C527">
         <v>69</v>
@@ -10960,10 +10969,10 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C528">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D528">
         <v>5</v>
@@ -10980,10 +10989,10 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C529">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D529">
         <v>5</v>
@@ -11000,10 +11009,10 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C530">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D530">
         <v>5</v>
@@ -11020,10 +11029,10 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C531">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D531">
         <v>5</v>
@@ -11040,10 +11049,10 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C532">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D532">
         <v>5</v>
@@ -11060,10 +11069,10 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C533">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D533">
         <v>5</v>
@@ -11080,10 +11089,10 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C534">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D534">
         <v>5</v>
@@ -11100,10 +11109,10 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C535">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D535">
         <v>5</v>
@@ -11120,10 +11129,10 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C536">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D536">
         <v>5</v>
@@ -11140,10 +11149,10 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C537">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D537">
         <v>5</v>
@@ -11160,10 +11169,10 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C538">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D538">
         <v>5</v>
@@ -11183,7 +11192,7 @@
         <v>79</v>
       </c>
       <c r="C539">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D539">
         <v>5</v>
@@ -11200,10 +11209,10 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C540">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D540">
         <v>5</v>
@@ -11220,10 +11229,10 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C541">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D541">
         <v>5</v>
@@ -11240,10 +11249,10 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C542">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D542">
         <v>5</v>
@@ -11260,10 +11269,10 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C543">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D543">
         <v>5</v>
@@ -11280,10 +11289,10 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C544">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D544">
         <v>5</v>
@@ -11300,10 +11309,10 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C545">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D545">
         <v>5</v>
@@ -11320,7 +11329,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C546">
         <v>71</v>
@@ -11340,10 +11349,10 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C547">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D547">
         <v>5</v>
@@ -11360,10 +11369,10 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C548">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D548">
         <v>5</v>
@@ -11380,10 +11389,10 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C549">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D549">
         <v>5</v>
@@ -11400,10 +11409,10 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C550">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D550">
         <v>5</v>
@@ -11420,10 +11429,10 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C551">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D551">
         <v>5</v>
@@ -11440,10 +11449,10 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C552">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D552">
         <v>5</v>
@@ -11460,10 +11469,10 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C553">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D553">
         <v>5</v>
@@ -11480,10 +11489,10 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C554">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D554">
         <v>5</v>
@@ -11500,10 +11509,10 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C555">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D555">
         <v>5</v>
@@ -11520,10 +11529,10 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C556">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D556">
         <v>5</v>
@@ -11540,10 +11549,10 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C557">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D557">
         <v>5</v>
@@ -11560,10 +11569,10 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C558">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D558">
         <v>5</v>
@@ -11580,10 +11589,10 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C559">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D559">
         <v>5</v>
@@ -11600,10 +11609,10 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C560">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D560">
         <v>5</v>
@@ -11623,7 +11632,7 @@
         <v>80</v>
       </c>
       <c r="C561">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D561">
         <v>5</v>
@@ -11640,10 +11649,10 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C562">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D562">
         <v>5</v>
@@ -11660,10 +11669,10 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C563">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D563">
         <v>5</v>
@@ -11680,10 +11689,10 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C564">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D564">
         <v>5</v>
@@ -11700,10 +11709,10 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C565">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D565">
         <v>5</v>
@@ -11720,10 +11729,10 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C566">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D566">
         <v>5</v>
@@ -11740,7 +11749,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C567">
         <v>73</v>
@@ -11760,10 +11769,10 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C568">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D568">
         <v>5</v>
@@ -11780,10 +11789,10 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C569">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D569">
         <v>5</v>
@@ -11800,10 +11809,10 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C570">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D570">
         <v>5</v>
@@ -11820,10 +11829,10 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C571">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D571">
         <v>5</v>
@@ -11840,10 +11849,10 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C572">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D572">
         <v>5</v>
@@ -11860,10 +11869,10 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C573">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D573">
         <v>5</v>
@@ -11880,10 +11889,10 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C574">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D574">
         <v>5</v>
@@ -11900,10 +11909,10 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C575">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D575">
         <v>5</v>
@@ -11920,10 +11929,10 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C576">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D576">
         <v>5</v>
@@ -11940,10 +11949,10 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C577">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D577">
         <v>5</v>
@@ -11960,10 +11969,10 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C578">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D578">
         <v>5</v>
@@ -11980,10 +11989,10 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C579">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D579">
         <v>5</v>
@@ -12000,10 +12009,10 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C580">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D580">
         <v>5</v>
@@ -12020,10 +12029,10 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C581">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D581">
         <v>5</v>
@@ -12040,10 +12049,10 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C582">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D582">
         <v>5</v>
@@ -12060,10 +12069,10 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C583">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D583">
         <v>5</v>
@@ -12080,10 +12089,10 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C584">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D584">
         <v>5</v>
@@ -12100,10 +12109,10 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C585">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D585">
         <v>5</v>
@@ -12120,10 +12129,10 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C586">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D586">
         <v>5</v>
@@ -12140,10 +12149,10 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C587">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D587">
         <v>5</v>
@@ -12160,10 +12169,10 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C588">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D588">
         <v>5</v>
@@ -12180,13 +12189,13 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C589">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D589">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F589" t="s">
         <v>7</v>
@@ -12200,13 +12209,13 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C590">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D590">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F590" t="s">
         <v>7</v>
@@ -12220,13 +12229,13 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C591">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D591">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F591" t="s">
         <v>7</v>
@@ -12240,13 +12249,13 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C592">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D592">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F592" t="s">
         <v>7</v>
@@ -12260,13 +12269,13 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C593">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D593">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F593" t="s">
         <v>7</v>
@@ -12280,13 +12289,13 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C594">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D594">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F594" t="s">
         <v>7</v>
@@ -12300,13 +12309,13 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C595">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D595">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F595" t="s">
         <v>7</v>
@@ -12320,13 +12329,13 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C596">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D596">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F596" t="s">
         <v>7</v>
@@ -12340,13 +12349,13 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C597">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D597">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F597" t="s">
         <v>7</v>
@@ -12360,13 +12369,13 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C598">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D598">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F598" t="s">
         <v>7</v>
@@ -12380,13 +12389,13 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C599">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D599">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F599" t="s">
         <v>7</v>
@@ -12400,13 +12409,13 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C600">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D600">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F600" t="s">
         <v>7</v>
@@ -12420,13 +12429,13 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C601">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D601">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F601" t="s">
         <v>7</v>
@@ -12440,13 +12449,13 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C602">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D602">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F602" t="s">
         <v>7</v>
@@ -12460,13 +12469,13 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C603">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D603">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F603" t="s">
         <v>7</v>
@@ -12480,13 +12489,13 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C604">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D604">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F604" t="s">
         <v>7</v>
@@ -12500,13 +12509,13 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C605">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D605">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F605" t="s">
         <v>7</v>
@@ -12520,13 +12529,13 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C606">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D606">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F606" t="s">
         <v>7</v>
@@ -12540,13 +12549,13 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C607">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D607">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F607" t="s">
         <v>7</v>
@@ -12560,13 +12569,13 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C608">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D608">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F608" t="s">
         <v>7</v>
@@ -12580,10 +12589,10 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C609">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D609">
         <v>6</v>
@@ -12600,10 +12609,10 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C610">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D610">
         <v>6</v>
@@ -12620,10 +12629,10 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C611">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D611">
         <v>6</v>
@@ -12660,10 +12669,10 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C613">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D613">
         <v>6</v>
@@ -12680,10 +12689,10 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C614">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D614">
         <v>6</v>
@@ -12700,10 +12709,10 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C615">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D615">
         <v>6</v>
@@ -12720,10 +12729,10 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C616">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D616">
         <v>6</v>
@@ -12740,10 +12749,10 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C617">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D617">
         <v>6</v>
@@ -12760,10 +12769,10 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C618">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D618">
         <v>6</v>
@@ -12780,10 +12789,10 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C619">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D619">
         <v>6</v>
@@ -12808,8 +12817,8 @@
       <c r="D620">
         <v>6</v>
       </c>
-      <c r="F620">
-        <v>1</v>
+      <c r="F620" t="s">
+        <v>7</v>
       </c>
       <c r="G620" t="s">
         <v>8</v>
@@ -12820,19 +12829,19 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C621">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D621">
         <v>6</v>
       </c>
-      <c r="F621">
-        <v>1</v>
-      </c>
-      <c r="G621">
-        <v>0</v>
+      <c r="F621" t="s">
+        <v>7</v>
+      </c>
+      <c r="G621" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.3">
@@ -12840,19 +12849,19 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C622">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D622">
         <v>6</v>
       </c>
-      <c r="F622">
-        <v>1</v>
-      </c>
-      <c r="G622">
-        <v>0</v>
+      <c r="F622" t="s">
+        <v>7</v>
+      </c>
+      <c r="G622" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.3">
@@ -12860,22 +12869,448 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C623">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D623">
         <v>6</v>
       </c>
-      <c r="F623">
-        <v>1</v>
-      </c>
-      <c r="G623">
-        <v>0</v>
+      <c r="F623" t="s">
+        <v>7</v>
+      </c>
+      <c r="G623" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624">
+        <v>86</v>
+      </c>
+      <c r="C624">
+        <v>85</v>
+      </c>
+      <c r="D624">
+        <v>6</v>
+      </c>
+      <c r="F624" t="s">
+        <v>7</v>
+      </c>
+      <c r="G624" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625">
+        <v>87</v>
+      </c>
+      <c r="C625">
+        <v>85</v>
+      </c>
+      <c r="D625">
+        <v>6</v>
+      </c>
+      <c r="F625" t="s">
+        <v>7</v>
+      </c>
+      <c r="G625" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626">
+        <v>88</v>
+      </c>
+      <c r="C626">
+        <v>85</v>
+      </c>
+      <c r="D626">
+        <v>6</v>
+      </c>
+      <c r="F626" t="s">
+        <v>7</v>
+      </c>
+      <c r="G626" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627">
+        <v>89</v>
+      </c>
+      <c r="C627">
+        <v>85</v>
+      </c>
+      <c r="D627">
+        <v>6</v>
+      </c>
+      <c r="F627" t="s">
+        <v>7</v>
+      </c>
+      <c r="G627" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628">
+        <v>90</v>
+      </c>
+      <c r="C628">
+        <v>85</v>
+      </c>
+      <c r="D628">
+        <v>6</v>
+      </c>
+      <c r="F628" t="s">
+        <v>7</v>
+      </c>
+      <c r="G628" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629">
+        <v>91</v>
+      </c>
+      <c r="C629">
+        <v>85</v>
+      </c>
+      <c r="D629">
+        <v>6</v>
+      </c>
+      <c r="F629" t="s">
+        <v>7</v>
+      </c>
+      <c r="G629" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630">
+        <v>87</v>
+      </c>
+      <c r="C630">
+        <v>86</v>
+      </c>
+      <c r="D630">
+        <v>6</v>
+      </c>
+      <c r="F630" t="s">
+        <v>7</v>
+      </c>
+      <c r="G630" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631">
+        <v>88</v>
+      </c>
+      <c r="C631">
+        <v>86</v>
+      </c>
+      <c r="D631">
+        <v>6</v>
+      </c>
+      <c r="F631" t="s">
+        <v>7</v>
+      </c>
+      <c r="G631" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632">
+        <v>89</v>
+      </c>
+      <c r="C632">
+        <v>86</v>
+      </c>
+      <c r="D632">
+        <v>6</v>
+      </c>
+      <c r="F632" t="s">
+        <v>7</v>
+      </c>
+      <c r="G632" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633">
+        <v>90</v>
+      </c>
+      <c r="C633">
+        <v>86</v>
+      </c>
+      <c r="D633">
+        <v>6</v>
+      </c>
+      <c r="F633" t="s">
+        <v>7</v>
+      </c>
+      <c r="G633" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634">
+        <v>91</v>
+      </c>
+      <c r="C634">
+        <v>86</v>
+      </c>
+      <c r="D634">
+        <v>6</v>
+      </c>
+      <c r="F634" t="s">
+        <v>7</v>
+      </c>
+      <c r="G634" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635">
+        <v>88</v>
+      </c>
+      <c r="C635">
+        <v>87</v>
+      </c>
+      <c r="D635">
+        <v>6</v>
+      </c>
+      <c r="F635" t="s">
+        <v>7</v>
+      </c>
+      <c r="G635" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636">
+        <v>89</v>
+      </c>
+      <c r="C636">
+        <v>87</v>
+      </c>
+      <c r="D636">
+        <v>6</v>
+      </c>
+      <c r="F636" t="s">
+        <v>7</v>
+      </c>
+      <c r="G636" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637">
+        <v>90</v>
+      </c>
+      <c r="C637">
+        <v>87</v>
+      </c>
+      <c r="D637">
+        <v>6</v>
+      </c>
+      <c r="F637" t="s">
+        <v>7</v>
+      </c>
+      <c r="G637" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="B638">
+        <v>91</v>
+      </c>
+      <c r="C638">
+        <v>87</v>
+      </c>
+      <c r="D638">
+        <v>6</v>
+      </c>
+      <c r="F638" t="s">
+        <v>7</v>
+      </c>
+      <c r="G638" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="B639">
+        <v>89</v>
+      </c>
+      <c r="C639">
+        <v>88</v>
+      </c>
+      <c r="D639">
+        <v>6</v>
+      </c>
+      <c r="F639" t="s">
+        <v>7</v>
+      </c>
+      <c r="G639" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="B640">
+        <v>90</v>
+      </c>
+      <c r="C640">
+        <v>88</v>
+      </c>
+      <c r="D640">
+        <v>6</v>
+      </c>
+      <c r="F640" t="s">
+        <v>7</v>
+      </c>
+      <c r="G640" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="B641">
+        <v>91</v>
+      </c>
+      <c r="C641">
+        <v>88</v>
+      </c>
+      <c r="D641">
+        <v>6</v>
+      </c>
+      <c r="F641" t="s">
+        <v>7</v>
+      </c>
+      <c r="G641" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="B642">
+        <v>90</v>
+      </c>
+      <c r="C642">
+        <v>89</v>
+      </c>
+      <c r="D642">
+        <v>6</v>
+      </c>
+      <c r="F642" t="s">
+        <v>7</v>
+      </c>
+      <c r="G642" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="B643">
+        <v>91</v>
+      </c>
+      <c r="C643">
+        <v>89</v>
+      </c>
+      <c r="D643">
+        <v>6</v>
+      </c>
+      <c r="F643" t="s">
+        <v>7</v>
+      </c>
+      <c r="G643" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="B644">
+        <v>91</v>
+      </c>
+      <c r="C644">
+        <v>90</v>
+      </c>
+      <c r="D644">
+        <v>6</v>
+      </c>
+      <c r="F644" t="s">
+        <v>7</v>
+      </c>
+      <c r="G644" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G644" xr:uid="{C370B841-890E-443E-A29C-FEED30CCD425}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G644">
+      <sortCondition ref="C1:C644"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/TT/Game-2020.xlsx
+++ b/data/TT/Game-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEDC79-9591-4941-8125-D011BEB0D94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933A18C-D3C8-4553-AF5A-41FAF4C46A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -412,11 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G644"/>
+  <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P622" sqref="P622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12581,726 +12581,6 @@
         <v>7</v>
       </c>
       <c r="G608" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A609">
-        <v>608</v>
-      </c>
-      <c r="B609">
-        <v>84</v>
-      </c>
-      <c r="C609">
-        <v>83</v>
-      </c>
-      <c r="D609">
-        <v>6</v>
-      </c>
-      <c r="F609" t="s">
-        <v>7</v>
-      </c>
-      <c r="G609" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A610">
-        <v>609</v>
-      </c>
-      <c r="B610">
-        <v>85</v>
-      </c>
-      <c r="C610">
-        <v>83</v>
-      </c>
-      <c r="D610">
-        <v>6</v>
-      </c>
-      <c r="F610" t="s">
-        <v>7</v>
-      </c>
-      <c r="G610" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A611">
-        <v>610</v>
-      </c>
-      <c r="B611">
-        <v>86</v>
-      </c>
-      <c r="C611">
-        <v>83</v>
-      </c>
-      <c r="D611">
-        <v>6</v>
-      </c>
-      <c r="F611" t="s">
-        <v>7</v>
-      </c>
-      <c r="G611" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A612">
-        <v>611</v>
-      </c>
-      <c r="B612">
-        <v>87</v>
-      </c>
-      <c r="C612">
-        <v>83</v>
-      </c>
-      <c r="D612">
-        <v>6</v>
-      </c>
-      <c r="F612" t="s">
-        <v>7</v>
-      </c>
-      <c r="G612" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A613">
-        <v>612</v>
-      </c>
-      <c r="B613">
-        <v>88</v>
-      </c>
-      <c r="C613">
-        <v>83</v>
-      </c>
-      <c r="D613">
-        <v>6</v>
-      </c>
-      <c r="F613" t="s">
-        <v>7</v>
-      </c>
-      <c r="G613" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A614">
-        <v>613</v>
-      </c>
-      <c r="B614">
-        <v>89</v>
-      </c>
-      <c r="C614">
-        <v>83</v>
-      </c>
-      <c r="D614">
-        <v>6</v>
-      </c>
-      <c r="F614" t="s">
-        <v>7</v>
-      </c>
-      <c r="G614" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A615">
-        <v>614</v>
-      </c>
-      <c r="B615">
-        <v>90</v>
-      </c>
-      <c r="C615">
-        <v>83</v>
-      </c>
-      <c r="D615">
-        <v>6</v>
-      </c>
-      <c r="F615" t="s">
-        <v>7</v>
-      </c>
-      <c r="G615" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A616">
-        <v>615</v>
-      </c>
-      <c r="B616">
-        <v>91</v>
-      </c>
-      <c r="C616">
-        <v>83</v>
-      </c>
-      <c r="D616">
-        <v>6</v>
-      </c>
-      <c r="F616" t="s">
-        <v>7</v>
-      </c>
-      <c r="G616" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A617">
-        <v>616</v>
-      </c>
-      <c r="B617">
-        <v>85</v>
-      </c>
-      <c r="C617">
-        <v>84</v>
-      </c>
-      <c r="D617">
-        <v>6</v>
-      </c>
-      <c r="F617" t="s">
-        <v>7</v>
-      </c>
-      <c r="G617" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A618">
-        <v>617</v>
-      </c>
-      <c r="B618">
-        <v>86</v>
-      </c>
-      <c r="C618">
-        <v>84</v>
-      </c>
-      <c r="D618">
-        <v>6</v>
-      </c>
-      <c r="F618" t="s">
-        <v>7</v>
-      </c>
-      <c r="G618" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A619">
-        <v>618</v>
-      </c>
-      <c r="B619">
-        <v>87</v>
-      </c>
-      <c r="C619">
-        <v>84</v>
-      </c>
-      <c r="D619">
-        <v>6</v>
-      </c>
-      <c r="F619" t="s">
-        <v>7</v>
-      </c>
-      <c r="G619" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A620">
-        <v>619</v>
-      </c>
-      <c r="B620">
-        <v>88</v>
-      </c>
-      <c r="C620">
-        <v>84</v>
-      </c>
-      <c r="D620">
-        <v>6</v>
-      </c>
-      <c r="F620" t="s">
-        <v>7</v>
-      </c>
-      <c r="G620" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A621">
-        <v>620</v>
-      </c>
-      <c r="B621">
-        <v>89</v>
-      </c>
-      <c r="C621">
-        <v>84</v>
-      </c>
-      <c r="D621">
-        <v>6</v>
-      </c>
-      <c r="F621" t="s">
-        <v>7</v>
-      </c>
-      <c r="G621" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A622">
-        <v>621</v>
-      </c>
-      <c r="B622">
-        <v>90</v>
-      </c>
-      <c r="C622">
-        <v>84</v>
-      </c>
-      <c r="D622">
-        <v>6</v>
-      </c>
-      <c r="F622" t="s">
-        <v>7</v>
-      </c>
-      <c r="G622" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A623">
-        <v>622</v>
-      </c>
-      <c r="B623">
-        <v>91</v>
-      </c>
-      <c r="C623">
-        <v>84</v>
-      </c>
-      <c r="D623">
-        <v>6</v>
-      </c>
-      <c r="F623" t="s">
-        <v>7</v>
-      </c>
-      <c r="G623" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A624">
-        <v>623</v>
-      </c>
-      <c r="B624">
-        <v>86</v>
-      </c>
-      <c r="C624">
-        <v>85</v>
-      </c>
-      <c r="D624">
-        <v>6</v>
-      </c>
-      <c r="F624" t="s">
-        <v>7</v>
-      </c>
-      <c r="G624" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A625">
-        <v>624</v>
-      </c>
-      <c r="B625">
-        <v>87</v>
-      </c>
-      <c r="C625">
-        <v>85</v>
-      </c>
-      <c r="D625">
-        <v>6</v>
-      </c>
-      <c r="F625" t="s">
-        <v>7</v>
-      </c>
-      <c r="G625" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A626">
-        <v>625</v>
-      </c>
-      <c r="B626">
-        <v>88</v>
-      </c>
-      <c r="C626">
-        <v>85</v>
-      </c>
-      <c r="D626">
-        <v>6</v>
-      </c>
-      <c r="F626" t="s">
-        <v>7</v>
-      </c>
-      <c r="G626" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A627">
-        <v>626</v>
-      </c>
-      <c r="B627">
-        <v>89</v>
-      </c>
-      <c r="C627">
-        <v>85</v>
-      </c>
-      <c r="D627">
-        <v>6</v>
-      </c>
-      <c r="F627" t="s">
-        <v>7</v>
-      </c>
-      <c r="G627" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A628">
-        <v>627</v>
-      </c>
-      <c r="B628">
-        <v>90</v>
-      </c>
-      <c r="C628">
-        <v>85</v>
-      </c>
-      <c r="D628">
-        <v>6</v>
-      </c>
-      <c r="F628" t="s">
-        <v>7</v>
-      </c>
-      <c r="G628" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A629">
-        <v>628</v>
-      </c>
-      <c r="B629">
-        <v>91</v>
-      </c>
-      <c r="C629">
-        <v>85</v>
-      </c>
-      <c r="D629">
-        <v>6</v>
-      </c>
-      <c r="F629" t="s">
-        <v>7</v>
-      </c>
-      <c r="G629" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A630">
-        <v>629</v>
-      </c>
-      <c r="B630">
-        <v>87</v>
-      </c>
-      <c r="C630">
-        <v>86</v>
-      </c>
-      <c r="D630">
-        <v>6</v>
-      </c>
-      <c r="F630" t="s">
-        <v>7</v>
-      </c>
-      <c r="G630" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A631">
-        <v>630</v>
-      </c>
-      <c r="B631">
-        <v>88</v>
-      </c>
-      <c r="C631">
-        <v>86</v>
-      </c>
-      <c r="D631">
-        <v>6</v>
-      </c>
-      <c r="F631" t="s">
-        <v>7</v>
-      </c>
-      <c r="G631" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A632">
-        <v>631</v>
-      </c>
-      <c r="B632">
-        <v>89</v>
-      </c>
-      <c r="C632">
-        <v>86</v>
-      </c>
-      <c r="D632">
-        <v>6</v>
-      </c>
-      <c r="F632" t="s">
-        <v>7</v>
-      </c>
-      <c r="G632" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A633">
-        <v>632</v>
-      </c>
-      <c r="B633">
-        <v>90</v>
-      </c>
-      <c r="C633">
-        <v>86</v>
-      </c>
-      <c r="D633">
-        <v>6</v>
-      </c>
-      <c r="F633" t="s">
-        <v>7</v>
-      </c>
-      <c r="G633" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A634">
-        <v>633</v>
-      </c>
-      <c r="B634">
-        <v>91</v>
-      </c>
-      <c r="C634">
-        <v>86</v>
-      </c>
-      <c r="D634">
-        <v>6</v>
-      </c>
-      <c r="F634" t="s">
-        <v>7</v>
-      </c>
-      <c r="G634" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A635">
-        <v>634</v>
-      </c>
-      <c r="B635">
-        <v>88</v>
-      </c>
-      <c r="C635">
-        <v>87</v>
-      </c>
-      <c r="D635">
-        <v>6</v>
-      </c>
-      <c r="F635" t="s">
-        <v>7</v>
-      </c>
-      <c r="G635" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A636">
-        <v>635</v>
-      </c>
-      <c r="B636">
-        <v>89</v>
-      </c>
-      <c r="C636">
-        <v>87</v>
-      </c>
-      <c r="D636">
-        <v>6</v>
-      </c>
-      <c r="F636" t="s">
-        <v>7</v>
-      </c>
-      <c r="G636" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A637">
-        <v>636</v>
-      </c>
-      <c r="B637">
-        <v>90</v>
-      </c>
-      <c r="C637">
-        <v>87</v>
-      </c>
-      <c r="D637">
-        <v>6</v>
-      </c>
-      <c r="F637" t="s">
-        <v>7</v>
-      </c>
-      <c r="G637" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A638">
-        <v>637</v>
-      </c>
-      <c r="B638">
-        <v>91</v>
-      </c>
-      <c r="C638">
-        <v>87</v>
-      </c>
-      <c r="D638">
-        <v>6</v>
-      </c>
-      <c r="F638" t="s">
-        <v>7</v>
-      </c>
-      <c r="G638" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A639">
-        <v>638</v>
-      </c>
-      <c r="B639">
-        <v>89</v>
-      </c>
-      <c r="C639">
-        <v>88</v>
-      </c>
-      <c r="D639">
-        <v>6</v>
-      </c>
-      <c r="F639" t="s">
-        <v>7</v>
-      </c>
-      <c r="G639" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A640">
-        <v>639</v>
-      </c>
-      <c r="B640">
-        <v>90</v>
-      </c>
-      <c r="C640">
-        <v>88</v>
-      </c>
-      <c r="D640">
-        <v>6</v>
-      </c>
-      <c r="F640" t="s">
-        <v>7</v>
-      </c>
-      <c r="G640" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A641">
-        <v>640</v>
-      </c>
-      <c r="B641">
-        <v>91</v>
-      </c>
-      <c r="C641">
-        <v>88</v>
-      </c>
-      <c r="D641">
-        <v>6</v>
-      </c>
-      <c r="F641" t="s">
-        <v>7</v>
-      </c>
-      <c r="G641" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A642">
-        <v>641</v>
-      </c>
-      <c r="B642">
-        <v>90</v>
-      </c>
-      <c r="C642">
-        <v>89</v>
-      </c>
-      <c r="D642">
-        <v>6</v>
-      </c>
-      <c r="F642" t="s">
-        <v>7</v>
-      </c>
-      <c r="G642" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A643">
-        <v>642</v>
-      </c>
-      <c r="B643">
-        <v>91</v>
-      </c>
-      <c r="C643">
-        <v>89</v>
-      </c>
-      <c r="D643">
-        <v>6</v>
-      </c>
-      <c r="F643" t="s">
-        <v>7</v>
-      </c>
-      <c r="G643" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A644">
-        <v>643</v>
-      </c>
-      <c r="B644">
-        <v>91</v>
-      </c>
-      <c r="C644">
-        <v>90</v>
-      </c>
-      <c r="D644">
-        <v>6</v>
-      </c>
-      <c r="F644" t="s">
-        <v>7</v>
-      </c>
-      <c r="G644" t="s">
         <v>8</v>
       </c>
     </row>
